--- a/rns-api/rns-admin/src/main/resources/template/sales_template.xlsx
+++ b/rns-api/rns-admin/src/main/resources/template/sales_template.xlsx
@@ -33,11 +33,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">                        </t>
     </r>
     <r>
@@ -59,44 +54,28 @@
     </r>
   </si>
   <si>
+    <t>客户名称：{customerName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合同编号： </t>
+  </si>
+  <si>
+    <t>{contractNo}</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>型号规格</t>
+  </si>
+  <si>
+    <t>数量（根）</t>
+  </si>
+  <si>
     <r>
-      <t>客户名称：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{customerName}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">合同编号： </t>
-  </si>
-  <si>
-    <t>{contractNo}</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>型号规格</t>
-  </si>
-  <si>
-    <t>数量（根）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>重量（</t>
     </r>
     <r>
@@ -130,10 +109,10 @@
     <t>合计</t>
   </si>
   <si>
-    <t>{.quantityTotal}</t>
-  </si>
-  <si>
-    <t>{.weightTotal}</t>
+    <t>{quantityTotal}</t>
+  </si>
+  <si>
+    <t>{weightTotal}</t>
   </si>
   <si>
     <t>发货日期：</t>
@@ -157,7 +136,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,18 +183,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
@@ -224,7 +191,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -780,64 +746,64 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,10 +812,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,10 +824,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,10 +836,10 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,10 +848,10 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,10 +860,10 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,11 +872,11 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -947,47 +913,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1312,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" outlineLevelCol="5"/>
@@ -1366,7 +1320,7 @@
       <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1391,19 +1345,19 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="11"/>
@@ -1411,62 +1365,86 @@
     <row r="6" customFormat="1" ht="18" customHeight="1" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" customFormat="1" ht="18" customHeight="1" spans="1:6">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:6">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:6">
-      <c r="A9" s="18" t="s">
+    <row r="9" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" customFormat="1" ht="18" customHeight="1" spans="1:6">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:6">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="14" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F12" s="16"/>
     </row>
-    <row r="10" ht="30.75" customHeight="1" spans="1:5">
-      <c r="A10" s="20" t="s">
+    <row r="13" ht="30.75" customHeight="1" spans="1:5">
+      <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.551181102362205" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="180"/>

--- a/rns-api/rns-admin/src/main/resources/template/sales_template.xlsx
+++ b/rns-api/rns-admin/src/main/resources/template/sales_template.xlsx
@@ -27,12 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>{company}</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="楷体_GB2312"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">                        </t>
     </r>
     <r>
@@ -47,7 +52,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -72,10 +76,18 @@
     <t>型号规格</t>
   </si>
   <si>
+    <t>长度（m)</t>
+  </si>
+  <si>
     <t>数量（根）</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>重量（</t>
     </r>
     <r>
@@ -100,10 +112,16 @@
     <t>{.skuName}</t>
   </si>
   <si>
+    <t>{.length}</t>
+  </si>
+  <si>
     <t>{.quantity}</t>
   </si>
   <si>
     <t>{.weight}</t>
+  </si>
+  <si>
+    <t>{.remark}</t>
   </si>
   <si>
     <t>合计</t>
@@ -339,7 +357,6 @@
     <font>
       <sz val="16"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -579,19 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -626,6 +630,19 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -876,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,46 +925,49 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1266,31 +1286,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="3"/>
-    <col min="8" max="8" width="9.375" style="3"/>
-    <col min="9" max="9" width="11.5" style="3"/>
-    <col min="10" max="10" width="12.625" style="3"/>
-    <col min="11" max="11" width="13.375" style="3" customWidth="1"/>
-    <col min="12" max="251" width="9" style="3"/>
-    <col min="252" max="252" width="13.125" style="3"/>
-    <col min="253" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="11.9765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="3"/>
+    <col min="9" max="9" width="9.375" style="3"/>
+    <col min="10" max="10" width="11.5" style="3"/>
+    <col min="11" max="11" width="12.625" style="3"/>
+    <col min="12" max="12" width="13.375" style="3" customWidth="1"/>
+    <col min="13" max="252" width="9" style="3"/>
+    <col min="253" max="253" width="13.125" style="3"/>
+    <col min="254" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:6">
+    <row r="1" ht="23.25" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1299,8 +1320,9 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" ht="21.75" customHeight="1" spans="1:6">
+    <row r="2" ht="21.75" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1309,142 +1331,124 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:7">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+    <row r="4" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="5" ht="18" customHeight="1" spans="1:7">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="E5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="11"/>
+    <row r="6" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="10"/>
     </row>
-    <row r="7" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+    <row r="7" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="10"/>
     </row>
-    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
+    <row r="8" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
-    <row r="9" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:6">
-      <c r="A12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" ht="30.75" customHeight="1" spans="1:5">
-      <c r="A13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="20"/>
+    <row r="9" ht="30.75" customHeight="1" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.551181102362205" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="180"/>
